--- a/Code/Resultados_Analisis/Analisis_Global/resumen_anova_patrones_ciudades.xlsx
+++ b/Code/Resultados_Analisis/Analisis_Global/resumen_anova_patrones_ciudades.xlsx
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.05965209538169368</v>
+        <v>0.04729165577382676</v>
       </c>
       <c r="D2" t="n">
-        <v>3.851867533186229e-15</v>
+        <v>2.553107688952266e-10</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-0.1554451931091353</v>
+        <v>-0.1705029610435088</v>
       </c>
       <c r="H2" t="n">
-        <v>8.327369988005295e-35</v>
+        <v>2.849421789686596e-37</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.1793956817110065</v>
+        <v>0.1639587592005282</v>
       </c>
     </row>
     <row r="3">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.08981149512461392</v>
+        <v>0.07743981254005844</v>
       </c>
       <c r="D3" t="n">
-        <v>5.193304305214587e-30</v>
+        <v>3.329763252441008e-31</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -551,14 +551,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Salt_Lake_UT</t>
+          <t>Peachtree_GA</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-0.2062805222800906</v>
+        <v>-0.2254180846681812</v>
       </c>
       <c r="H3" t="n">
-        <v>9.662510945013585e-74</v>
+        <v>4.816536200115525e-86</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.3716604111583033</v>
+        <v>0.3745233030973145</v>
       </c>
     </row>
     <row r="4">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.08278593411551531</v>
+        <v>0.1076569468820822</v>
       </c>
       <c r="D4" t="n">
-        <v>3.550045132405386e-23</v>
+        <v>4.911587834098606e-19</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.4389341170652891</v>
+        <v>0.4510710219151058</v>
       </c>
       <c r="H4" t="n">
-        <v>5.659670328533974e-82</v>
+        <v>2.747216009924017e-90</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.3558375769588893</v>
+        <v>0.3455132731148677</v>
       </c>
     </row>
     <row r="5">
@@ -619,14 +619,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>264.6632541080538</v>
+        <v>-188.6207103560134</v>
       </c>
       <c r="D5" t="n">
-        <v>5.741644448005243e-10</v>
+        <v>5.659471592052651e-08</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1277.964977089915</v>
+        <v>1205.887240513735</v>
       </c>
       <c r="H5" t="n">
-        <v>5.547693832674902e-45</v>
+        <v>2.122231798827156e-47</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.2052602471972166</v>
+        <v>0.1990700095360115</v>
       </c>
     </row>
     <row r="6">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>151.5217535979905</v>
+        <v>101.4549198018583</v>
       </c>
       <c r="D6" t="n">
-        <v>1.107563184801996e-21</v>
+        <v>5.950768490188135e-18</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -677,14 +677,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Santa_Fe_NM</t>
+          <t>Peachtree_GA</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-327.6475014923637</v>
+        <v>-362.1834404914982</v>
       </c>
       <c r="H6" t="n">
-        <v>1.503626225276978e-58</v>
+        <v>4.524686963579098e-67</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.3027285594356831</v>
+        <v>0.2926630854423703</v>
       </c>
     </row>
     <row r="7">
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27.54349575630735</v>
+        <v>11.01296504767902</v>
       </c>
       <c r="D7" t="n">
-        <v>9.616821849261251e-08</v>
+        <v>3.407791125886214e-05</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -719,14 +719,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Santa_Fe_NM</t>
+          <t>Peachtree_GA</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-35.59572291456165</v>
+        <v>-47.5679835139464</v>
       </c>
       <c r="H7" t="n">
-        <v>1.890475249772073e-16</v>
+        <v>2.258564088641781e-18</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.094595143292586</v>
+        <v>0.0854824950620493</v>
       </c>
     </row>
     <row r="8">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>89.61239192388093</v>
+        <v>52.78726680170318</v>
       </c>
       <c r="D8" t="n">
-        <v>7.306077330819737e-14</v>
+        <v>5.125114071704915e-08</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-164.9812794035151</v>
+        <v>-196.6695617837759</v>
       </c>
       <c r="H8" t="n">
-        <v>2.149365658325005e-26</v>
+        <v>2.008185991136924e-28</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.1491071488761299</v>
+        <v>0.1296020806063813</v>
       </c>
     </row>
     <row r="9">
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.08278593411551531</v>
+        <v>0.1076569468820822</v>
       </c>
       <c r="D9" t="n">
-        <v>3.550045132405386e-23</v>
+        <v>4.911587834098606e-19</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -807,10 +807,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.4389341170652891</v>
+        <v>0.4510710219151058</v>
       </c>
       <c r="H9" t="n">
-        <v>5.659670328533974e-82</v>
+        <v>2.747216009924017e-90</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.3558375769588893</v>
+        <v>0.3455132731148677</v>
       </c>
     </row>
     <row r="10">
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.08981149512461392</v>
+        <v>0.07743981254005844</v>
       </c>
       <c r="D10" t="n">
-        <v>5.193304305214587e-30</v>
+        <v>3.329763252441008e-31</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -845,14 +845,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Salt_Lake_UT</t>
+          <t>Peachtree_GA</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-0.2062805222800906</v>
+        <v>-0.2254180846681812</v>
       </c>
       <c r="H10" t="n">
-        <v>9.662510945013585e-74</v>
+        <v>4.816536200115525e-86</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.3716604111583033</v>
+        <v>0.3745233030973145</v>
       </c>
     </row>
     <row r="11">
@@ -875,10 +875,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01368221605307471</v>
+        <v>0.007692915830670023</v>
       </c>
       <c r="D11" t="n">
-        <v>3.886967940517874e-07</v>
+        <v>2.184590941909525e-05</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-0.02547757967369912</v>
+        <v>-0.03091166641122196</v>
       </c>
       <c r="H11" t="n">
-        <v>5.697637570790464e-20</v>
+        <v>2.866252216339483e-22</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.1063470788483788</v>
+        <v>0.1001783966575306</v>
       </c>
     </row>
     <row r="12">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.04596987932861894</v>
+        <v>0.03959873994315675</v>
       </c>
       <c r="D12" t="n">
-        <v>2.301435847081055e-13</v>
+        <v>8.409633839178351e-09</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-0.1299676134354361</v>
+        <v>-0.1395912946322868</v>
       </c>
       <c r="H12" t="n">
-        <v>2.715134898685642e-28</v>
+        <v>3.652530916440544e-30</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.1515070721066915</v>
+        <v>0.1363711288305465</v>
       </c>
     </row>
   </sheetData>
